--- a/excel/xcel.xlsx
+++ b/excel/xcel.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1800" yWindow="1128" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="accept" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="reject" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="font_line" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -46,7 +48,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -428,30 +431,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="21.21875" customWidth="1" min="3" max="3"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="21.21875" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>d/m/y</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>run</t>
         </is>
@@ -508,6 +511,98 @@
         </is>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="11.6640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.88671875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="27.77734375" customWidth="1" style="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>d/m/y</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06-05-2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20:41:08</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>th0000-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>06-05-2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20:41:08</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>th0000-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06-05-2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20:41:09</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>th0000-2</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -545,85 +640,179 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>14-05-2023</t>
+          <t>06-05-2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18:23:23</t>
+          <t>20:41:10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25818581</t>
+          <t>th0000-5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14-05-2023</t>
+          <t>06-05-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18:23:25</t>
+          <t>20:41:11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>58128121</t>
+          <t>th0000-6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>14-05-2023</t>
+          <t>06-05-2026</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18:23:27</t>
+          <t>20:41:12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>81829897</t>
+          <t>th0000-7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14-05-2023</t>
+          <t>06-05-2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18:23:27</t>
+          <t>20:41:08</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>81890897</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>14-05-2023</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>18:23:27</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>18227581</t>
+          <t>th0000-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16:07:25</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8858998585076</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="14.44140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="19.5546875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="23.33203125" customWidth="1" style="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>d/m/y</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>24-05-2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13:25:04</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>th0000-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>24-05-2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13:25:04</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>th0000-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16:02:43</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8858998585076</t>
         </is>
       </c>
     </row>

--- a/excel/xcel.xlsx
+++ b/excel/xcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="accept" sheetId="1" state="visible" r:id="rId1"/>
@@ -431,10 +431,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -463,51 +463,83 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-05-2023</t>
+          <t>26-05-2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20:41:08</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>th0000-0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>06-05-2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20:41:08</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>th0000-1</t>
-        </is>
+          <t>23:22:23</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3012000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06-05-2023</t>
+          <t>27-05-2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20:41:09</t>
+          <t>16:06:07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>th0000-2</t>
+          <t>1240603</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27-05-2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16:07:17</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1240612</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27-05-2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16:07:53</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2596012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>27-05-2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16:09:02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2596007</t>
         </is>
       </c>
     </row>
@@ -522,10 +554,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -555,171 +587,83 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-05-2023</t>
+          <t>26-05-2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20:41:08</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>th0000-0</t>
-        </is>
+          <t>23:20:17</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1240666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06-05-2023</t>
+          <t>27-05-2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20:41:08</t>
+          <t>16:06:42</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>th0000-1</t>
+          <t>3012004</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06-05-2023</t>
+          <t>27-05-2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20:41:09</t>
+          <t>16:08:28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>th0000-2</t>
+          <t>1240614</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06-05-2023</t>
+          <t>27-05-2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20:41:09</t>
+          <t>16:09:35</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>th0000-3</t>
+          <t>1240609</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06-05-2023</t>
+          <t>27-05-2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20:41:09</t>
+          <t>16:11:35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>th0000-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06-05-2024</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20:41:10</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>th0000-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>06-05-2025</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20:41:11</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>th0000-6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>06-05-2026</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>20:41:12</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>th0000-7</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>06-05-2023</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>20:41:08</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>th0000-8</t>
-        </is>
-      </c>
-    </row>
-    <row r="12"/>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>25-05-2023</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>16:07:25</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8858998585076</t>
+          <t>3012008</t>
         </is>
       </c>
     </row>
@@ -735,10 +679,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -768,52 +712,121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-05-2023</t>
+          <t>25-05-2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13:25:04</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>th0000-0</t>
-        </is>
+          <t>16:02:43</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2596005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-05-2023</t>
+          <t>25-05-2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:25:04</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>th0000-1</t>
-        </is>
+          <t>16:02:44</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3012004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-05-2023</t>
+          <t>25-05-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16:02:43</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8858998585076</t>
-        </is>
+          <t>16:02:45</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1240614</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25-05-2026</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16:02:46</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3012016</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25-05-2027</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16:02:47</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1240601</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25-05-2028</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16:02:48</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1240609</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25-05-2029</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16:02:49</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2596014</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25-05-2030</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>16:02:50</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3012008</v>
       </c>
     </row>
   </sheetData>
